--- a/casedatas/pdm_test_data.xlsx
+++ b/casedatas/pdm_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27620" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="27620" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>case_id</t>
   </si>
@@ -118,6 +118,470 @@
   </si>
   <si>
     <t>上海科学技术有限责任公司05</t>
+  </si>
+  <si>
+    <t>新增项目成功</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>https://chalseenew_pdm.icwn.cn/Api/services/app/Project/CreateProject</t>
+  </si>
+  <si>
+    <t>{
+ "ProjectSideId": 101,
+ "ProjectName": "模拟地产项目1号",
+ "ProjectParticipants": [{
+  "employeeId": 92,
+  "name": "发行管理经理",
+  "email": "123456@123",
+  "job": "发行管理经理"
+ }, {
+  "employeeId": 94,
+  "name": "产品经理",
+  "email": "12345@123",
+  "job": "产品经理"
+ }, {
+  "employeeId": 93,
+  "name": "产品总监",
+  "email": "123456@12",
+  "job": "产品总监"
+ }, {
+  "employeeId": 95,
+  "name": "项目总监",
+  "email": "456@123",
+  "job": "项目总监"
+ }],
+ "ProjectVersions": {
+  "IsAuditStatements": "1",
+  "FocusAttentions": [{
+   "Matter": "退出方式",
+   "FocusAttentionIndex": 0
+  }, {
+   "Matter": "股东人数是否超过200人",
+   "FocusAttentionIndex": 1
+  }, {
+   "Matter": "历史沿革是否涉及国企或集体企业改革",
+   "FocusAttentionIndex": 2
+  }, {
+   "Matter": "现有股东是否存在国有股东（包括国有控股的股权投资机构）、外资股东",
+   "FocusAttentionIndex": 3
+  }, {
+   "Matter": "是否存在涉嫌出资不实的情形（重点关注无形资产出资、事务出资、自有资产评估增资等）",
+   "FocusAttentionIndex": 4
+  }, {
+   "Matter": "是否存在你关联方大额资金占用或对关联方提供担保",
+   "FocusAttentionIndex": 5
+  }, {
+   "Matter": "是否与控股股东、实际控制人存在同业竞争",
+   "FocusAttentionIndex": 6
+  }, {
+   "Matter": "是否存在影响独立性的持续性关联交易",
+   "FocusAttentionIndex": 7
+  }, {
+   "Matter": "是否存在账外收入及是否需要大额补税",
+   "FocusAttentionIndex": 8
+  }, {
+   "Matter": "最近两年是否存在重大违法违规行为",
+   "FocusAttentionIndex": 9
+  }],
+  "FinancialSituations": [{
+   "Year": 2022,
+   "TotalAssets": 2022,
+   "TotalLiabilities": 2023,
+   "NetAssets": 2024,
+   "ActuralIncome": 2025,
+   "ActuralNetProfit": 2026
+  }, {
+   "Year": 2021,
+   "TotalAssets": 1021,
+   "TotalLiabilities": 1022,
+   "NetAssets": 1023,
+   "ActuralIncome": 1024,
+   "ActuralNetProfit": 1025
+  }, {
+   "Year": 2020
+  }, {
+   "Year": 2019
+  }],
+  "FinancingParty": "上海淑荣",
+  "DatumReceiveTime": "2021-12-30",
+  "FirstAuditor": "赵数禧",
+  "ContectPhone": "13429384449",
+  "ProjectType": "2",
+  "ManageType": "2",
+  "MainBusiness": "主营业务：模拟123",
+  "CompetitiveEdge": "业务优势：456",
+  "FinancingPlan": "融资用途：789",
+  "AuditInstitutions": "上海数据中心",
+  "ProjectNote": "注意事项：1、风控问题"
+ }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "ProjectSideId": 101,
+ "ProjectName": "模拟地产项目2号",
+ "ProjectParticipants": [{
+  "employeeId": 92,
+  "name": "发行管理经理",
+  "email": "123456@123",
+  "job": "发行管理经理"
+ }, {
+  "employeeId": 94,
+  "name": "产品经理",
+  "email": "12345@123",
+  "job": "产品经理"
+ }, {
+  "employeeId": 93,
+  "name": "产品总监",
+  "email": "123456@12",
+  "job": "产品总监"
+ }, {
+  "employeeId": 95,
+  "name": "项目总监",
+  "email": "456@123",
+  "job": "项目总监"
+ }],
+ "ProjectVersions": {
+  "IsAuditStatements": "1",
+  "FocusAttentions": [{
+   "Matter": "退出方式",
+   "FocusAttentionIndex": 0
+  }, {
+   "Matter": "股东人数是否超过200人",
+   "FocusAttentionIndex": 1
+  }, {
+   "Matter": "历史沿革是否涉及国企或集体企业改革",
+   "FocusAttentionIndex": 2
+  }, {
+   "Matter": "现有股东是否存在国有股东（包括国有控股的股权投资机构）、外资股东",
+   "FocusAttentionIndex": 3
+  }, {
+   "Matter": "是否存在涉嫌出资不实的情形（重点关注无形资产出资、事务出资、自有资产评估增资等）",
+   "FocusAttentionIndex": 4
+  }, {
+   "Matter": "是否存在你关联方大额资金占用或对关联方提供担保",
+   "FocusAttentionIndex": 5
+  }, {
+   "Matter": "是否与控股股东、实际控制人存在同业竞争",
+   "FocusAttentionIndex": 6
+  }, {
+   "Matter": "是否存在影响独立性的持续性关联交易",
+   "FocusAttentionIndex": 7
+  }, {
+   "Matter": "是否存在账外收入及是否需要大额补税",
+   "FocusAttentionIndex": 8
+  }, {
+   "Matter": "最近两年是否存在重大违法违规行为",
+   "FocusAttentionIndex": 9
+  }],
+  "FinancialSituations": [{
+   "Year": 2022,
+   "TotalAssets": 2022,
+   "TotalLiabilities": 2023,
+   "NetAssets": 2024,
+   "ActuralIncome": 2025,
+   "ActuralNetProfit": 2026
+  }, {
+   "Year": 2021,
+   "TotalAssets": 1021,
+   "TotalLiabilities": 1022,
+   "NetAssets": 1023,
+   "ActuralIncome": 1024,
+   "ActuralNetProfit": 1025
+  }, {
+   "Year": 2020
+  }, {
+   "Year": 2019
+  }],
+  "FinancingParty": "上海淑荣",
+  "DatumReceiveTime": "2021-12-30",
+  "FirstAuditor": "赵数禧",
+  "ContectPhone": "13429384449",
+  "ProjectType": "2",
+  "ManageType": "2",
+  "MainBusiness": "主营业务：模拟123",
+  "CompetitiveEdge": "业务优势：456",
+  "FinancingPlan": "融资用途：789",
+  "AuditInstitutions": "上海数据中心",
+  "ProjectNote": "注意事项：1、风控问题"
+ }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "ProjectSideId": 101,
+ "ProjectName": "模拟地产项目3号",
+ "ProjectParticipants": [{
+  "employeeId": 92,
+  "name": "发行管理经理",
+  "email": "123456@123",
+  "job": "发行管理经理"
+ }, {
+  "employeeId": 94,
+  "name": "产品经理",
+  "email": "12345@123",
+  "job": "产品经理"
+ }, {
+  "employeeId": 93,
+  "name": "产品总监",
+  "email": "123456@12",
+  "job": "产品总监"
+ }, {
+  "employeeId": 95,
+  "name": "项目总监",
+  "email": "456@123",
+  "job": "项目总监"
+ }],
+ "ProjectVersions": {
+  "IsAuditStatements": "1",
+  "FocusAttentions": [{
+   "Matter": "退出方式",
+   "FocusAttentionIndex": 0
+  }, {
+   "Matter": "股东人数是否超过200人",
+   "FocusAttentionIndex": 1
+  }, {
+   "Matter": "历史沿革是否涉及国企或集体企业改革",
+   "FocusAttentionIndex": 2
+  }, {
+   "Matter": "现有股东是否存在国有股东（包括国有控股的股权投资机构）、外资股东",
+   "FocusAttentionIndex": 3
+  }, {
+   "Matter": "是否存在涉嫌出资不实的情形（重点关注无形资产出资、事务出资、自有资产评估增资等）",
+   "FocusAttentionIndex": 4
+  }, {
+   "Matter": "是否存在你关联方大额资金占用或对关联方提供担保",
+   "FocusAttentionIndex": 5
+  }, {
+   "Matter": "是否与控股股东、实际控制人存在同业竞争",
+   "FocusAttentionIndex": 6
+  }, {
+   "Matter": "是否存在影响独立性的持续性关联交易",
+   "FocusAttentionIndex": 7
+  }, {
+   "Matter": "是否存在账外收入及是否需要大额补税",
+   "FocusAttentionIndex": 8
+  }, {
+   "Matter": "最近两年是否存在重大违法违规行为",
+   "FocusAttentionIndex": 9
+  }],
+  "FinancialSituations": [{
+   "Year": 2022,
+   "TotalAssets": 2022,
+   "TotalLiabilities": 2023,
+   "NetAssets": 2024,
+   "ActuralIncome": 2025,
+   "ActuralNetProfit": 2026
+  }, {
+   "Year": 2021,
+   "TotalAssets": 1021,
+   "TotalLiabilities": 1022,
+   "NetAssets": 1023,
+   "ActuralIncome": 1024,
+   "ActuralNetProfit": 1025
+  }, {
+   "Year": 2020
+  }, {
+   "Year": 2019
+  }],
+  "FinancingParty": "上海淑荣",
+  "DatumReceiveTime": "2021-12-30",
+  "FirstAuditor": "赵数禧",
+  "ContectPhone": "13429384449",
+  "ProjectType": "2",
+  "ManageType": "2",
+  "MainBusiness": "主营业务：模拟123",
+  "CompetitiveEdge": "业务优势：456",
+  "FinancingPlan": "融资用途：789",
+  "AuditInstitutions": "上海数据中心",
+  "ProjectNote": "注意事项：1、风控问题"
+ }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "ProjectSideId": 101,
+ "ProjectName": "模拟地产项目4号",
+ "ProjectParticipants": [{
+  "employeeId": 92,
+  "name": "发行管理经理",
+  "email": "123456@123",
+  "job": "发行管理经理"
+ }, {
+  "employeeId": 94,
+  "name": "产品经理",
+  "email": "12345@123",
+  "job": "产品经理"
+ }, {
+  "employeeId": 93,
+  "name": "产品总监",
+  "email": "123456@12",
+  "job": "产品总监"
+ }, {
+  "employeeId": 95,
+  "name": "项目总监",
+  "email": "456@123",
+  "job": "项目总监"
+ }],
+ "ProjectVersions": {
+  "IsAuditStatements": "1",
+  "FocusAttentions": [{
+   "Matter": "退出方式",
+   "FocusAttentionIndex": 0
+  }, {
+   "Matter": "股东人数是否超过200人",
+   "FocusAttentionIndex": 1
+  }, {
+   "Matter": "历史沿革是否涉及国企或集体企业改革",
+   "FocusAttentionIndex": 2
+  }, {
+   "Matter": "现有股东是否存在国有股东（包括国有控股的股权投资机构）、外资股东",
+   "FocusAttentionIndex": 3
+  }, {
+   "Matter": "是否存在涉嫌出资不实的情形（重点关注无形资产出资、事务出资、自有资产评估增资等）",
+   "FocusAttentionIndex": 4
+  }, {
+   "Matter": "是否存在你关联方大额资金占用或对关联方提供担保",
+   "FocusAttentionIndex": 5
+  }, {
+   "Matter": "是否与控股股东、实际控制人存在同业竞争",
+   "FocusAttentionIndex": 6
+  }, {
+   "Matter": "是否存在影响独立性的持续性关联交易",
+   "FocusAttentionIndex": 7
+  }, {
+   "Matter": "是否存在账外收入及是否需要大额补税",
+   "FocusAttentionIndex": 8
+  }, {
+   "Matter": "最近两年是否存在重大违法违规行为",
+   "FocusAttentionIndex": 9
+  }],
+  "FinancialSituations": [{
+   "Year": 2022,
+   "TotalAssets": 2022,
+   "TotalLiabilities": 2023,
+   "NetAssets": 2024,
+   "ActuralIncome": 2025,
+   "ActuralNetProfit": 2026
+  }, {
+   "Year": 2021,
+   "TotalAssets": 1021,
+   "TotalLiabilities": 1022,
+   "NetAssets": 1023,
+   "ActuralIncome": 1024,
+   "ActuralNetProfit": 1025
+  }, {
+   "Year": 2020
+  }, {
+   "Year": 2019
+  }],
+  "FinancingParty": "上海淑荣",
+  "DatumReceiveTime": "2021-12-30",
+  "FirstAuditor": "赵数禧",
+  "ContectPhone": "13429384449",
+  "ProjectType": "2",
+  "ManageType": "2",
+  "MainBusiness": "主营业务：模拟123",
+  "CompetitiveEdge": "业务优势：456",
+  "FinancingPlan": "融资用途：789",
+  "AuditInstitutions": "上海数据中心",
+  "ProjectNote": "注意事项：1、风控问题"
+ }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "ProjectSideId": 101,
+ "ProjectName": "模拟地产项目5号",
+ "ProjectParticipants": [{
+  "employeeId": 92,
+  "name": "发行管理经理",
+  "email": "123456@123",
+  "job": "发行管理经理"
+ }, {
+  "employeeId": 94,
+  "name": "产品经理",
+  "email": "12345@123",
+  "job": "产品经理"
+ }, {
+  "employeeId": 93,
+  "name": "产品总监",
+  "email": "123456@12",
+  "job": "产品总监"
+ }, {
+  "employeeId": 95,
+  "name": "项目总监",
+  "email": "456@123",
+  "job": "项目总监"
+ }],
+ "ProjectVersions": {
+  "IsAuditStatements": "1",
+  "FocusAttentions": [{
+   "Matter": "退出方式",
+   "FocusAttentionIndex": 0
+  }, {
+   "Matter": "股东人数是否超过200人",
+   "FocusAttentionIndex": 1
+  }, {
+   "Matter": "历史沿革是否涉及国企或集体企业改革",
+   "FocusAttentionIndex": 2
+  }, {
+   "Matter": "现有股东是否存在国有股东（包括国有控股的股权投资机构）、外资股东",
+   "FocusAttentionIndex": 3
+  }, {
+   "Matter": "是否存在涉嫌出资不实的情形（重点关注无形资产出资、事务出资、自有资产评估增资等）",
+   "FocusAttentionIndex": 4
+  }, {
+   "Matter": "是否存在你关联方大额资金占用或对关联方提供担保",
+   "FocusAttentionIndex": 5
+  }, {
+   "Matter": "是否与控股股东、实际控制人存在同业竞争",
+   "FocusAttentionIndex": 6
+  }, {
+   "Matter": "是否存在影响独立性的持续性关联交易",
+   "FocusAttentionIndex": 7
+  }, {
+   "Matter": "是否存在账外收入及是否需要大额补税",
+   "FocusAttentionIndex": 8
+  }, {
+   "Matter": "最近两年是否存在重大违法违规行为",
+   "FocusAttentionIndex": 9
+  }],
+  "FinancialSituations": [{
+   "Year": 2022,
+   "TotalAssets": 2022,
+   "TotalLiabilities": 2023,
+   "NetAssets": 2024,
+   "ActuralIncome": 2025,
+   "ActuralNetProfit": 2026
+  }, {
+   "Year": 2021,
+   "TotalAssets": 1021,
+   "TotalLiabilities": 1022,
+   "NetAssets": 1023,
+   "ActuralIncome": 1024,
+   "ActuralNetProfit": 1025
+  }, {
+   "Year": 2020
+  }, {
+   "Year": 2019
+  }],
+  "FinancingParty": "上海淑荣",
+  "DatumReceiveTime": "2021-12-30",
+  "FirstAuditor": "赵数禧",
+  "ContectPhone": "13429384449",
+  "ProjectType": "2",
+  "ManageType": "2",
+  "MainBusiness": "主营业务：模拟123",
+  "CompetitiveEdge": "业务优势：456",
+  "FinancingPlan": "融资用途：789",
+  "AuditInstitutions": "上海数据中心",
+  "ProjectNote": "注意事项：1、风控问题"
+ }
+}</t>
   </si>
 </sst>
 </file>
@@ -125,10 +589,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,6 +600,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,30 +626,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,45 +650,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,9 +678,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,18 +725,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,181 +762,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +955,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,15 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,17 +1018,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,161 +1036,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1116,7 +1583,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1139,7 +1606,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1162,7 +1629,7 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -1185,7 +1652,7 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
@@ -1208,7 +1675,7 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
@@ -1226,16 +1693,16 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.3571428571429" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="37.6428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5089285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="73.5089285714286" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.3125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1252,10 +1719,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1275,10 +1742,10 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
@@ -1298,10 +1765,10 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
@@ -1321,10 +1788,10 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G4" t="s">
@@ -1344,10 +1811,10 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
@@ -1367,10 +1834,10 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
@@ -1386,15 +1853,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.92857142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.9285714285714" customWidth="1"/>
+    <col min="4" max="4" width="8.21428571428571" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6428571428571" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1407,17 +1881,120 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" ht="409.5" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="409.5" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://chalseenew_pdm.icwn.cn/Api/services/app/Project/CreateProject"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
